--- a/kotoba3/dokkai_kotoba.xlsx
+++ b/kotoba3/dokkai_kotoba.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>あじわいます</t>
   </si>
@@ -214,6 +214,57 @@
   </si>
   <si>
     <t>きんがく</t>
+  </si>
+  <si>
+    <t>あるいは</t>
+  </si>
+  <si>
+    <t>異なります</t>
+  </si>
+  <si>
+    <t>ことなります</t>
+  </si>
+  <si>
+    <t>当社</t>
+  </si>
+  <si>
+    <t>とうしゃ</t>
+  </si>
+  <si>
+    <t>返品</t>
+  </si>
+  <si>
+    <t>へんぴん</t>
+  </si>
+  <si>
+    <t>負担</t>
+  </si>
+  <si>
+    <t>ふたん</t>
+  </si>
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>こうもく</t>
+  </si>
+  <si>
+    <t>実施</t>
+  </si>
+  <si>
+    <t>じっし</t>
+  </si>
+  <si>
+    <t>協力</t>
+  </si>
+  <si>
+    <t>きょうりょく</t>
+  </si>
+  <si>
+    <t>基準</t>
+  </si>
+  <si>
+    <t>きじゅん</t>
   </si>
 </sst>
 </file>
@@ -552,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C37"/>
+  <dimension ref="B4:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,6 +879,75 @@
       </c>
       <c r="C37" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
